--- a/一阶项目文件/hx180310林春通数据结构设计.xlsx
+++ b/一阶项目文件/hx180310林春通数据结构设计.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm\Downloads\web work\CY-work\一阶项目文件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82325594-AB86-4FCB-A798-BDFC80E5DB57}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
   <si>
     <t>课程评分</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,10 +51,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>课程价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,13 +232,73 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程封面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程内容图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgCover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,400 +661,464 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
       <c r="P1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
       <c r="S1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
       <c r="V1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1">
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="1" customFormat="1">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="1" customFormat="1">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="1" customFormat="1">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="1" customFormat="1"/>
-    <row r="12" spans="1:23" s="1" customFormat="1"/>
-    <row r="13" spans="1:23" s="1" customFormat="1"/>
-    <row r="14" spans="1:23" s="1" customFormat="1"/>
-    <row r="15" spans="1:23" s="1" customFormat="1">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:23" s="1" customFormat="1">
-      <c r="A16" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
+  <mergeCells count="8">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/一阶项目文件/hx180310林春通数据结构设计.xlsx
+++ b/一阶项目文件/hx180310林春通数据结构设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm\Downloads\web work\CY-work\一阶项目文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82325594-AB86-4FCB-A798-BDFC80E5DB57}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7C4E6B9-F953-4BD8-958C-4F8E4D8C1A77}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
   <si>
     <t>课程评分</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -291,6 +291,70 @@
   </si>
   <si>
     <t>nodus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婷婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程必备信息/技术方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个方向最少找10条（参考www.imooc.com免费课程区）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">云计算&amp;大数据 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +380,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -344,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +427,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -467,7 +552,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -669,16 +754,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="143" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
@@ -1106,19 +1191,102 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="J21" s="1"/>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/一阶项目文件/hx180310林春通数据结构设计.xlsx
+++ b/一阶项目文件/hx180310林春通数据结构设计.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm\Downloads\web work\CY-work\一阶项目文件\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7C4E6B9-F953-4BD8-958C-4F8E4D8C1A77}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -361,8 +355,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,19 +420,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,7 +494,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -552,7 +546,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -746,21 +740,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="143" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="O10" activeCellId="1" sqref="I23 O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -776,47 +770,47 @@
     <col min="23" max="23" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -869,7 +863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,7 +916,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,7 +963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,7 +1004,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,7 +1033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1062,7 +1056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1085,7 +1079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1108,7 +1102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1125,7 +1119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="1" customFormat="1">
       <c r="D11" s="1" t="s">
         <v>61</v>
       </c>
@@ -1136,7 +1130,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="1" customFormat="1">
       <c r="D12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1147,19 +1141,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" s="1" customFormat="1"/>
+    <row r="14" spans="1:24" s="1" customFormat="1"/>
+    <row r="15" spans="1:24" s="1" customFormat="1">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:24" s="1" customFormat="1">
+      <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1167,7 +1161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1175,7 +1169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1183,7 +1177,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1191,88 +1185,92 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:10" ht="27">
+      <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="J1:L1"/>
@@ -1283,10 +1281,6 @@
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/一阶项目文件/hx180310林春通数据结构设计.xlsx
+++ b/一阶项目文件/hx180310林春通数据结构设计.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm\Downloads\web work\CY-work\一阶项目文件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7B85D5FB-BA25-4CA1-A7CA-A6E3A06F6C61}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
   <si>
     <t>课程评分</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -349,14 +355,74 @@
   </si>
   <si>
     <t xml:space="preserve">云计算&amp;大数据 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cBelong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uBelong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapBelong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uComment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,10 +491,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -494,7 +560,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -546,7 +612,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -740,21 +806,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="O10" activeCellId="1" sqref="I23 O10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -763,54 +829,56 @@
     <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -832,38 +900,56 @@
       <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="R2" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="U2" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1">
+      <c r="X2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -885,38 +971,56 @@
       <c r="H3" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="M3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="P3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="R3" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="S3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="U3" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="V3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" s="1" customFormat="1">
+      <c r="X3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -938,32 +1042,47 @@
       <c r="H4" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="R4" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="S4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="U4" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="V4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" s="1" customFormat="1">
+      <c r="X4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -985,26 +1104,38 @@
       <c r="H5" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="S5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="U5" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="V5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" s="1" customFormat="1">
+      <c r="X5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1026,14 +1157,20 @@
       <c r="K6" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="V6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" s="1" customFormat="1">
+      <c r="X6" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1192,11 @@
       <c r="K7" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" s="1" customFormat="1">
+      <c r="L7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1078,8 +1218,11 @@
       <c r="K8" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" s="1" customFormat="1">
+      <c r="L8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1101,8 +1244,11 @@
       <c r="K9" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" s="1" customFormat="1">
+      <c r="L9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1119,7 +1265,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1">
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>61</v>
       </c>
@@ -1130,7 +1276,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="1" customFormat="1">
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1141,19 +1287,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="1" customFormat="1"/>
-    <row r="14" spans="1:24" s="1" customFormat="1"/>
-    <row r="15" spans="1:24" s="1" customFormat="1">
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:24" s="1" customFormat="1">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1161,7 +1307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1">
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1169,7 +1315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1">
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1">
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1185,7 +1331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="27">
+    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
@@ -1206,7 +1352,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>71</v>
       </c>
@@ -1226,7 +1372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
@@ -1236,7 +1382,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
@@ -1246,7 +1392,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
@@ -1256,14 +1402,14 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:10">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/一阶项目文件/hx180310林春通数据结构设计.xlsx
+++ b/一阶项目文件/hx180310林春通数据结构设计.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm\Downloads\web work\CY-work\一阶项目文件\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7B85D5FB-BA25-4CA1-A7CA-A6E3A06F6C61}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
   <si>
     <t>课程评分</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,10 +45,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,14 +405,34 @@
   </si>
   <si>
     <t>uComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChapterMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cBelong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +500,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,7 +573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -612,7 +625,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -806,21 +819,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -838,578 +851,590 @@
     <col min="23" max="23" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="1" customFormat="1">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="1" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="1" customFormat="1">
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="1" customFormat="1">
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="1" customFormat="1"/>
+    <row r="14" spans="1:24" s="1" customFormat="1"/>
+    <row r="15" spans="1:24" s="1" customFormat="1">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" s="1" customFormat="1">
+      <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="27">
+      <c r="A21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/一阶项目文件/hx180310林春通数据结构设计.xlsx
+++ b/一阶项目文件/hx180310林春通数据结构设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="112">
   <si>
     <t>课程评分</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -425,6 +425,46 @@
   </si>
   <si>
     <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phonenum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailsrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allintergral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranknum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,7 +859,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -830,25 +870,29 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1">
@@ -898,6 +942,9 @@
       <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
@@ -969,6 +1016,9 @@
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1040,6 +1090,9 @@
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1102,6 +1155,9 @@
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,6 +1211,9 @@
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1190,6 +1249,9 @@
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1216,6 +1278,9 @@
       <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1240,7 +1305,10 @@
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>102</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>39</v>
@@ -1267,6 +1335,9 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>59</v>

--- a/一阶项目文件/hx180310林春通数据结构设计.xlsx
+++ b/一阶项目文件/hx180310林春通数据结构设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <t>课程评分</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -417,10 +417,6 @@
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cBelong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -859,7 +855,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -870,7 +866,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -937,13 +933,13 @@
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -1017,7 +1013,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -1091,7 +1087,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -1156,7 +1152,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -1212,7 +1208,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -1250,7 +1246,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
@@ -1279,7 +1275,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -1305,10 +1301,10 @@
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>39</v>
@@ -1337,7 +1333,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>59</v>
@@ -1391,7 +1387,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1">
@@ -1427,7 +1423,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="27">
+    <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>

--- a/一阶项目文件/hx180310林春通数据结构设计.xlsx
+++ b/一阶项目文件/hx180310林春通数据结构设计.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm\Downloads\web work\CY-work\一阶项目文件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{451809D6-E5DE-415B-A0C2-71664CC2DC9B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -467,8 +473,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,21 +861,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -891,7 +897,7 @@
     <col min="23" max="24" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -931,7 +937,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1">
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>100</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1">
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1">
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1">
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1">
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1">
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="1" customFormat="1">
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="1" customFormat="1">
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="1" customFormat="1">
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1345,7 +1351,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1">
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="1" customFormat="1">
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1367,19 +1373,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="1" customFormat="1"/>
-    <row r="14" spans="1:24" s="1" customFormat="1"/>
-    <row r="15" spans="1:24" s="1" customFormat="1">
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:24" s="1" customFormat="1">
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1">
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1">
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1">
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1">
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
@@ -1444,7 +1450,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>70</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>71</v>
       </c>
@@ -1474,7 +1480,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
@@ -1484,7 +1490,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>73</v>
       </c>
@@ -1494,7 +1500,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>80</v>
       </c>
